--- a/data/2018_data.xlsx
+++ b/data/2018_data.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00zh0\OneDrive\CAU\2020-1\자연어처리 및 정보검색\과제\Information-Retrieval\Team project\Sentiment-Analysis\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_92CA5DCBE7512FC69E170BAF835EFABD512F3A93" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{296FA232-4A7B-4691-861B-70FC9D67D7B7}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="936" yWindow="0" windowWidth="22104" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="280">
   <si>
     <t>title</t>
   </si>
@@ -25,10 +31,559 @@
     <t>lyric</t>
   </si>
   <si>
+    <t>duration</t>
+  </si>
+  <si>
     <t>Perfect</t>
   </si>
   <si>
+    <t>Meant To Be</t>
+  </si>
+  <si>
+    <t>Havana</t>
+  </si>
+  <si>
+    <t>Rockstar</t>
+  </si>
+  <si>
+    <t>Psycho</t>
+  </si>
+  <si>
+    <t>I Like It</t>
+  </si>
+  <si>
+    <t>The Middle</t>
+  </si>
+  <si>
+    <t>In My Feelings</t>
+  </si>
+  <si>
+    <t>Girls Like You</t>
+  </si>
+  <si>
+    <t>Nice For What</t>
+  </si>
+  <si>
+    <t>Lucid Dreams</t>
+  </si>
+  <si>
+    <t>Better Now</t>
+  </si>
+  <si>
+    <t>Finesse</t>
+  </si>
+  <si>
+    <t>Boo'd Up</t>
+  </si>
+  <si>
+    <t>New Rules</t>
+  </si>
+  <si>
+    <t>Sad!</t>
+  </si>
+  <si>
+    <t>Never Be The Same</t>
+  </si>
+  <si>
+    <t>Love Lies</t>
+  </si>
+  <si>
+    <t>No Tears Left To Cry</t>
+  </si>
+  <si>
+    <t>Mine</t>
+  </si>
+  <si>
+    <t>Thunder</t>
+  </si>
+  <si>
+    <t>Look Alive</t>
+  </si>
+  <si>
+    <t>Delicate</t>
+  </si>
+  <si>
+    <t>Yes Indeed</t>
+  </si>
+  <si>
+    <t>Friends</t>
+  </si>
+  <si>
+    <t>Bad At Love</t>
+  </si>
+  <si>
+    <t>Taste</t>
+  </si>
+  <si>
+    <t>Let You Down</t>
+  </si>
+  <si>
+    <t>No Limit</t>
+  </si>
+  <si>
+    <t>FEFE</t>
+  </si>
+  <si>
+    <t>Tequila</t>
+  </si>
+  <si>
+    <t>Feel It Still</t>
+  </si>
+  <si>
+    <t>MotorSport</t>
+  </si>
+  <si>
+    <t>I Like Me Better</t>
+  </si>
+  <si>
+    <t>Youngblood</t>
+  </si>
+  <si>
+    <t>Whatever It Takes</t>
+  </si>
+  <si>
+    <t>Ric Flair Drip</t>
+  </si>
+  <si>
+    <t>I Fall Apart</t>
+  </si>
+  <si>
+    <t>Pray For Me</t>
+  </si>
+  <si>
+    <t>Back To You</t>
+  </si>
+  <si>
+    <t>Sicko Mode</t>
+  </si>
+  <si>
+    <t>Walk It Talk It</t>
+  </si>
+  <si>
+    <t>Gucci Gang</t>
+  </si>
+  <si>
+    <t>Him &amp; I</t>
+  </si>
+  <si>
+    <t>In My Blood</t>
+  </si>
+  <si>
+    <t>All The Stars</t>
+  </si>
+  <si>
+    <t>Stir Fry</t>
+  </si>
+  <si>
+    <t>Too Good At Goodbyes</t>
+  </si>
+  <si>
+    <t>Love.</t>
+  </si>
+  <si>
+    <t>This Is America</t>
+  </si>
+  <si>
+    <t>Nonstop</t>
+  </si>
+  <si>
+    <t>Heaven</t>
+  </si>
+  <si>
+    <t>Bodak Yellow (Money Moves)</t>
+  </si>
+  <si>
+    <t>Freaky Friday</t>
+  </si>
+  <si>
+    <t>Gummo</t>
+  </si>
+  <si>
+    <t>Plug Walk</t>
+  </si>
+  <si>
+    <t>Wait</t>
+  </si>
+  <si>
+    <t>Be Careful</t>
+  </si>
+  <si>
+    <t>Wolves</t>
+  </si>
+  <si>
+    <t>Bartier Cardi</t>
+  </si>
+  <si>
+    <t>God Is A Woman</t>
+  </si>
+  <si>
+    <t>Big Bank</t>
+  </si>
+  <si>
+    <t>Sorry Not Sorry</t>
+  </si>
+  <si>
+    <t>How Long</t>
+  </si>
+  <si>
+    <t>Lights Down Low</t>
+  </si>
+  <si>
+    <t>Young Dumb &amp; Broke</t>
+  </si>
+  <si>
+    <t>One Kiss</t>
+  </si>
+  <si>
+    <t>Natural</t>
+  </si>
+  <si>
+    <t>You Make It Easy</t>
+  </si>
+  <si>
+    <t>Shape Of You</t>
+  </si>
+  <si>
+    <t>I Get The Bag</t>
+  </si>
+  <si>
+    <t>No Brainer</t>
+  </si>
+  <si>
+    <t>Plain Jane</t>
+  </si>
+  <si>
+    <t>Sky Walker</t>
+  </si>
+  <si>
+    <t>Marry Me</t>
+  </si>
+  <si>
+    <t>Eastside</t>
+  </si>
+  <si>
+    <t>Call Out My Name</t>
+  </si>
+  <si>
+    <t>King's Dead</t>
+  </si>
+  <si>
+    <t>Happier</t>
+  </si>
+  <si>
+    <t>Te Bote</t>
+  </si>
+  <si>
+    <t>Simple</t>
+  </si>
+  <si>
+    <t>Lemon</t>
+  </si>
+  <si>
+    <t>1-800-273-8255</t>
+  </si>
+  <si>
+    <t>Say Something</t>
+  </si>
+  <si>
+    <t>I'm Upset</t>
+  </si>
+  <si>
+    <t>Get Along</t>
+  </si>
+  <si>
+    <t>Moonlight</t>
+  </si>
+  <si>
+    <t>What Lovers Do</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Outside Today</t>
+  </si>
+  <si>
+    <t>Trip</t>
+  </si>
+  <si>
+    <t>Dura</t>
+  </si>
+  <si>
+    <t>Changes</t>
+  </si>
+  <si>
+    <t>Mercy</t>
+  </si>
+  <si>
+    <t>One Number Away</t>
+  </si>
+  <si>
+    <t>Powerglide</t>
+  </si>
+  <si>
+    <t>IDGAF</t>
+  </si>
+  <si>
+    <t>Mi Gente</t>
+  </si>
+  <si>
+    <t>Believer</t>
+  </si>
+  <si>
     <t>Ed Sheeran</t>
+  </si>
+  <si>
+    <t>Bebe Rexha &amp; Florida Georgia Line</t>
+  </si>
+  <si>
+    <t>Camila Cabello Featuring Young Thug</t>
+  </si>
+  <si>
+    <t>Post Malone Featuring 21 Savage</t>
+  </si>
+  <si>
+    <t>Post Malone Featuring Ty Dolla $ign</t>
+  </si>
+  <si>
+    <t>Cardi B, Bad Bunny &amp; J Balvin</t>
+  </si>
+  <si>
+    <t>Zedd, Maren Morris &amp; Grey</t>
+  </si>
+  <si>
+    <t>Drake</t>
+  </si>
+  <si>
+    <t>Maroon 5 Featuring Cardi B</t>
+  </si>
+  <si>
+    <t>Juice WRLD</t>
+  </si>
+  <si>
+    <t>Post Malone</t>
+  </si>
+  <si>
+    <t>Bruno Mars &amp; Cardi B</t>
+  </si>
+  <si>
+    <t>Ella Mai</t>
+  </si>
+  <si>
+    <t>Dua Lipa</t>
+  </si>
+  <si>
+    <t>XXXTENTACION</t>
+  </si>
+  <si>
+    <t>Camila Cabello</t>
+  </si>
+  <si>
+    <t>Khalid &amp; Normani</t>
+  </si>
+  <si>
+    <t>Ariana Grande</t>
+  </si>
+  <si>
+    <t>Bazzi</t>
+  </si>
+  <si>
+    <t>Imagine Dragons</t>
+  </si>
+  <si>
+    <t>BlocBoy JB Featuring Drake</t>
+  </si>
+  <si>
+    <t>Taylor Swift</t>
+  </si>
+  <si>
+    <t>Lil Baby &amp; Drake</t>
+  </si>
+  <si>
+    <t>Marshmello &amp; Anne-Marie</t>
+  </si>
+  <si>
+    <t>Halsey</t>
+  </si>
+  <si>
+    <t>Tyga Featuring Offset</t>
+  </si>
+  <si>
+    <t>NF</t>
+  </si>
+  <si>
+    <t>G-Eazy Featuring A$AP Rocky &amp; Cardi B</t>
+  </si>
+  <si>
+    <t>6ix9ine Featuring Nicki Minaj &amp; Murda Beatz</t>
+  </si>
+  <si>
+    <t>Dan + Shay</t>
+  </si>
+  <si>
+    <t>Portugal. The Man</t>
+  </si>
+  <si>
+    <t>Migos, Nicki Minaj &amp; Cardi B</t>
+  </si>
+  <si>
+    <t>Lauv</t>
+  </si>
+  <si>
+    <t>5 Seconds Of Summer</t>
+  </si>
+  <si>
+    <t>Offset &amp; Metro Boomin</t>
+  </si>
+  <si>
+    <t>The Weeknd &amp; Kendrick Lamar</t>
+  </si>
+  <si>
+    <t>Selena Gomez</t>
+  </si>
+  <si>
+    <t>Travis Scott</t>
+  </si>
+  <si>
+    <t>Migos Featuring Drake</t>
+  </si>
+  <si>
+    <t>Lil Pump</t>
+  </si>
+  <si>
+    <t>G-Eazy &amp; Halsey</t>
+  </si>
+  <si>
+    <t>Shawn Mendes</t>
+  </si>
+  <si>
+    <t>Kendrick Lamar &amp; SZA</t>
+  </si>
+  <si>
+    <t>Migos</t>
+  </si>
+  <si>
+    <t>Sam Smith</t>
+  </si>
+  <si>
+    <t>Kendrick Lamar Featuring Zacari</t>
+  </si>
+  <si>
+    <t>Childish Gambino</t>
+  </si>
+  <si>
+    <t>Kane Brown</t>
+  </si>
+  <si>
+    <t>Cardi B</t>
+  </si>
+  <si>
+    <t>Lil Dicky Featuring Chris Brown</t>
+  </si>
+  <si>
+    <t>6ix9ine</t>
+  </si>
+  <si>
+    <t>Rich The Kid</t>
+  </si>
+  <si>
+    <t>Maroon 5</t>
+  </si>
+  <si>
+    <t>Selena Gomez X Marshmello</t>
+  </si>
+  <si>
+    <t>Cardi B Featuring 21 Savage</t>
+  </si>
+  <si>
+    <t>YG Featuring 2 Chainz, Big Sean &amp; Nicki Minaj</t>
+  </si>
+  <si>
+    <t>Demi Lovato</t>
+  </si>
+  <si>
+    <t>Charlie Puth</t>
+  </si>
+  <si>
+    <t>MAX Featuring gnash</t>
+  </si>
+  <si>
+    <t>Khalid</t>
+  </si>
+  <si>
+    <t>Calvin Harris &amp; Dua Lipa</t>
+  </si>
+  <si>
+    <t>Jason Aldean</t>
+  </si>
+  <si>
+    <t>Gucci Mane Featuring Migos</t>
+  </si>
+  <si>
+    <t>DJ Khaled Featuring Justin Bieber, Chance The Rapper &amp; Quavo</t>
+  </si>
+  <si>
+    <t>A$AP Ferg Featuring Nicki Minaj</t>
+  </si>
+  <si>
+    <t>Miguel Featuring Travis Scott</t>
+  </si>
+  <si>
+    <t>Thomas Rhett</t>
+  </si>
+  <si>
+    <t>benny blanco, Halsey &amp; Khalid</t>
+  </si>
+  <si>
+    <t>The Weeknd</t>
+  </si>
+  <si>
+    <t>Jay Rock, Kendrick Lamar, Future &amp; James Blake</t>
+  </si>
+  <si>
+    <t>Marshmello &amp; Bastille</t>
+  </si>
+  <si>
+    <t>Casper Magico, Nio Garcia, Darell, Nicky Jam, Ozuna &amp; Bad Bunny</t>
+  </si>
+  <si>
+    <t>Florida Georgia Line</t>
+  </si>
+  <si>
+    <t>N*E*R*D &amp; Rihanna</t>
+  </si>
+  <si>
+    <t>Logic Featuring Alessia Cara &amp; Khalid</t>
+  </si>
+  <si>
+    <t>Justin Timberlake Featuring Chris Stapleton</t>
+  </si>
+  <si>
+    <t>Kenny Chesney</t>
+  </si>
+  <si>
+    <t>Maroon 5 Featuring SZA</t>
+  </si>
+  <si>
+    <t>Nicky Jam x J Balvin</t>
+  </si>
+  <si>
+    <t>YoungBoy Never Broke Again</t>
+  </si>
+  <si>
+    <t>Daddy Yankee</t>
+  </si>
+  <si>
+    <t>Brett Young</t>
+  </si>
+  <si>
+    <t>Luke Combs</t>
+  </si>
+  <si>
+    <t>Rae Sremmurd &amp; Juicy J</t>
+  </si>
+  <si>
+    <t>J Balvin &amp; Willy William Featuring Beyonce</t>
   </si>
   <si>
     <t>I found a love for me
@@ -64,12 +619,6 @@
 And she looks perfect
 I don't deserve this
 You look perfect tonight</t>
-  </si>
-  <si>
-    <t>Meant To Be</t>
-  </si>
-  <si>
-    <t>Bebe Rexha &amp; Florida Georgia Line</t>
   </si>
   <si>
     <t>Baby, lay on back and relax
@@ -124,12 +673,6 @@
 Baby, if it's meant to be
 If it's meant to be, it'll be, it'll be
 Baby, if it's meant to be</t>
-  </si>
-  <si>
-    <t>Havana</t>
-  </si>
-  <si>
-    <t>Camila Cabello Featuring Young Thug</t>
   </si>
   <si>
     <t>Havana, ooh na-na (ayy) (Hey)
@@ -200,12 +743,6 @@
 Havana, ooh na-na</t>
   </si>
   <si>
-    <t>Rockstar</t>
-  </si>
-  <si>
-    <t>Post Malone Featuring 21 Savage</t>
-  </si>
-  <si>
     <t>Hahahahaha
 Tank God
 Ayy, ayyI've been fuckin' hoes and poppin' pillies
@@ -274,12 +811,6 @@
 Feel just like a...</t>
   </si>
   <si>
-    <t>Psycho</t>
-  </si>
-  <si>
-    <t>Post Malone Featuring Ty Dolla $ign</t>
-  </si>
-  <si>
     <t>Damn, my AP goin' psycho, lil' mama bad like Michael
 Can't really trust nobody with all this jewelry on you
 My roof look like a no-show, got diamonds by the boatloadCome with the Tony Romo for clowns and all the bozos
@@ -334,12 +865,6 @@
 Can't really trust nobody with all this jewelry on you
 My roof look like a no-show, got diamonds by the boatload
 Don't act like you my friend when I'm rollin' through my ends, though</t>
-  </si>
-  <si>
-    <t>I Like It</t>
-  </si>
-  <si>
-    <t>Cardi B, Bad Bunny &amp; J Balvin</t>
   </si>
   <si>
     <t>Yeah, baby, I like it like that
@@ -439,12 +964,6 @@
 Oh, he's so handsome, what's his name? Yeah (I said I like it)</t>
   </si>
   <si>
-    <t>The Middle</t>
-  </si>
-  <si>
-    <t>Zedd, Maren Morris &amp; Grey</t>
-  </si>
-  <si>
     <t>Take a seat right over there, sat on the stairs
 Stay or leave, the cabinets are bare and I'm unaware
 Of just how we got into this mess, got so aggressiveI know we meant all good intentions
@@ -490,12 +1009,6 @@
 I'm losing my mind just a little
 So why don't you just meet me in the middle, middle?
 In the middle, middle</t>
-  </si>
-  <si>
-    <t>In My Feelings</t>
-  </si>
-  <si>
-    <t>Drake</t>
   </si>
   <si>
     <t>Trap, TrapMoneyBenny
@@ -583,12 +1096,6 @@
 I'm just being real, my shit look</t>
   </si>
   <si>
-    <t>Girls Like You</t>
-  </si>
-  <si>
-    <t>Maroon 5 Featuring Cardi B</t>
-  </si>
-  <si>
     <t>Spent 24 hours
 I need more hours with you
 You spent the weekendGetting even, ooh
@@ -662,9 +1169,6 @@
 I need a girl like you, yeah, yeah
 Yeah, yeah, yeah, yeah, yeah, yeah
 I need a girl like you</t>
-  </si>
-  <si>
-    <t>Nice For What</t>
   </si>
   <si>
     <t>I wanna know who mothafuckin' representin' in here tonight
@@ -751,12 +1255,6 @@
 Give to me, give to me, why won't you live for me?</t>
   </si>
   <si>
-    <t>Lucid Dreams</t>
-  </si>
-  <si>
-    <t>Juice WRLD</t>
-  </si>
-  <si>
     <t>Enviyon on the mix
 No, no, no, noNo-no, no, no, no, no, no, no, no, no
 No, no, no, no
@@ -838,12 +1336,6 @@
 I won't let you forget me</t>
   </si>
   <si>
-    <t>Better Now</t>
-  </si>
-  <si>
-    <t>Post Malone</t>
-  </si>
-  <si>
     <t>You pro'lly think that you are better now, better now
 You only say that 'cause I'm not around, not around
 You know I never meant to let you down, let you downWould've gave you anything
@@ -905,18 +1397,6 @@
 You know I never meant to let you down, let you down
 Would've gave you anything
 Would've gave you everything, oh-woah</t>
-  </si>
-  <si>
-    <t>Finesse</t>
-  </si>
-  <si>
-    <t>Bruno Mars &amp; Cardi B</t>
-  </si>
-  <si>
-    <t>Boo'd Up</t>
-  </si>
-  <si>
-    <t>Ella Mai</t>
   </si>
   <si>
     <t>Yeah yeah, yeah yeah
@@ -982,12 +1462,6 @@
 My mind's telling me one thing, but
 I guess I should listen to my heart
 Right?</t>
-  </si>
-  <si>
-    <t>New Rules</t>
-  </si>
-  <si>
-    <t>Dua Lipa</t>
   </si>
   <si>
     <t>One
@@ -1063,12 +1537,6 @@
 You gettin' over him</t>
   </si>
   <si>
-    <t>Sad!</t>
-  </si>
-  <si>
-    <t>XXXTENTACION</t>
-  </si>
-  <si>
     <t>Yeah, Who am I? Someone that's afraid to let go, uh
 You decide, if you're ever gonna let me know, yeah
 Suicide, if you ever try to let go, uhI'm sad I know, yeah, I'm sad I know, yeah
@@ -1100,12 +1568,6 @@
 You decide, if you're ever gonna let me know, yeah
 Suicide, if you ever try to let go, uh
 I'm sad I know, yeah, I'm sad I know, yeah</t>
-  </si>
-  <si>
-    <t>Never Be The Same</t>
-  </si>
-  <si>
-    <t>Camila Cabello</t>
   </si>
   <si>
     <t>Something must've gone wrong in my brain
@@ -1169,12 +1631,6 @@
 Just one hit of you, I knew I'll never, ever, ever be the same</t>
   </si>
   <si>
-    <t>Love Lies</t>
-  </si>
-  <si>
-    <t>Khalid &amp; Normani</t>
-  </si>
-  <si>
     <t>Sorry if it's hard to catch my vibe, mmm
 I need a lover to trust, tell me you're on my side
 Are you down for the ride?It's not easy for someone to catch my eye
@@ -1223,12 +1679,6 @@
 Waste the day and spend the night (yeah, yeah)
 Underneath the sunrise (ooh)
 Show me where your love lies</t>
-  </si>
-  <si>
-    <t>No Tears Left To Cry</t>
-  </si>
-  <si>
-    <t>Ariana Grande</t>
   </si>
   <si>
     <t>Right now, I'm in a state of mind
@@ -1296,12 +1746,6 @@
 Yeah, we turnin' it up</t>
   </si>
   <si>
-    <t>Mine</t>
-  </si>
-  <si>
-    <t>Bazzi</t>
-  </si>
-  <si>
     <t>Huh, yeah, you know I just
 I had a little bit too much of Hennessy
 Jus' gonna tell you how I feel (Look)You so fucking precious when you smile (Heh, yeah)
@@ -1327,12 +1771,6 @@
 Feels like forever even if forever's tonight
 Just lay with me, waste this night away with me
 You're mine, I can't look away, I just gotta say</t>
-  </si>
-  <si>
-    <t>Thunder</t>
-  </si>
-  <si>
-    <t>Imagine Dragons</t>
   </si>
   <si>
     <t>Just a young gun with a quick fuse
@@ -1389,12 +1827,6 @@
 Thun-thun-thunder, thunder
 Thunder, thunder, thunder
 Thun-thun-thunder, thunder</t>
-  </si>
-  <si>
-    <t>Look Alive</t>
-  </si>
-  <si>
-    <t>BlocBoy JB Featuring Drake</t>
   </si>
   <si>
     <t>Tay Keith, fuck these niggas on
@@ -1455,12 +1887,6 @@
 I've been gone since like July, niggas actin' like I died
 They won't be expectin' shit when Capo go to slide
 'Cause I told them that we put that shit behind us, but I lied</t>
-  </si>
-  <si>
-    <t>Delicate</t>
-  </si>
-  <si>
-    <t>Taylor Swift</t>
   </si>
   <si>
     <t>This ain't for the best
@@ -1540,12 +1966,6 @@
 Isn't it delicate?</t>
   </si>
   <si>
-    <t>Yes Indeed</t>
-  </si>
-  <si>
-    <t>Lil Baby &amp; Drake</t>
-  </si>
-  <si>
     <t>Yeah
 Wheezy outta hereThe dash, it's digi', the schedule busy
 My head in a hoodie, my shorty a goodie
@@ -1598,12 +2018,6 @@
 Me and my dawg goin' all the way
 When you livin' like this, they supposed to hate
 Wheezy outta here</t>
-  </si>
-  <si>
-    <t>Friends</t>
-  </si>
-  <si>
-    <t>Marshmello &amp; Anne-Marie</t>
   </si>
   <si>
     <t>You say you love me, I say you crazy
@@ -1667,12 +2081,6 @@
 Want me to spell it out for you?
 F-R-I-E-N-D-S
 F-R-I-E-N-D-S</t>
-  </si>
-  <si>
-    <t>Bad At Love</t>
-  </si>
-  <si>
-    <t>Halsey</t>
   </si>
   <si>
     <t>Got a boy back home in Michigan
@@ -1740,12 +2148,6 @@
 You know, you know (Ooh-ooh)
 I'm bad at love (Ooh-ooh)
 Oh, oh</t>
-  </si>
-  <si>
-    <t>Taste</t>
-  </si>
-  <si>
-    <t>Tyga Featuring Offset</t>
   </si>
   <si>
     <t>Slide on a pimp game with my pinky ring
@@ -1827,12 +2229,6 @@
 Taste, taste, she can get a taste
 Taste, taste, do you love the taste?
 Taste, taste, worldwide they gon' get a taste.</t>
-  </si>
-  <si>
-    <t>Let You Down</t>
-  </si>
-  <si>
-    <t>NF</t>
   </si>
   <si>
     <t>Feels like we're on the edge right now
@@ -1918,12 +2314,6 @@
 I'm so sorry now
 Yeah I'm sorry
 That I let you down</t>
-  </si>
-  <si>
-    <t>No Limit</t>
-  </si>
-  <si>
-    <t>G-Eazy Featuring A$AP Rocky &amp; Cardi B</t>
   </si>
   <si>
     <t>If I hit it one time, I'ma pipe her
@@ -2029,12 +2419,6 @@
 Fuck with G and get some money</t>
   </si>
   <si>
-    <t>FEFE</t>
-  </si>
-  <si>
-    <t>6ix9ine Featuring Nicki Minaj &amp; Murda Beatz</t>
-  </si>
-  <si>
     <t>It's fuckin' TR3YWAY!
 King of New York, lookin' for the Queen
 Uh, you got the right one, hmmL-let these-l-let these b-b-bitches know, nigga
@@ -2110,12 +2494,6 @@
 Scum Gang!</t>
   </si>
   <si>
-    <t>Tequila</t>
-  </si>
-  <si>
-    <t>Dan + Shay</t>
-  </si>
-  <si>
     <t>I can still shut down a party
 I can hang with anybody
 I can drink whiskey and red wineChampagne all night
@@ -2150,12 +2528,6 @@
 When I taste tequila
 When I taste tequila
 When I taste tequila</t>
-  </si>
-  <si>
-    <t>Feel It Still</t>
-  </si>
-  <si>
-    <t>Portugal. The Man</t>
   </si>
   <si>
     <t>Can't keep my hands to myself
@@ -2203,12 +2575,6 @@
 Let me kick it like it's 1986, now
 Might be over now, but I feel it still
 Might've had your fill, but I feel it still</t>
-  </si>
-  <si>
-    <t>MotorSport</t>
-  </si>
-  <si>
-    <t>Migos, Nicki Minaj &amp; Cardi B</t>
   </si>
   <si>
     <t>Yeah, skrrt
@@ -2331,12 +2697,6 @@
 Niggas not cappin' this season</t>
   </si>
   <si>
-    <t>I Like Me Better</t>
-  </si>
-  <si>
-    <t>Lauv</t>
-  </si>
-  <si>
     <t>To be young and in love in New York city
 To not know who I am but still know that I'm good long as you're here with me
 To be drunk and in love in New York cityMidnight into morning coffee
@@ -2377,12 +2737,6 @@
 Look who you made me, made me, oh, no
 Better when-
 I like me better when I'm with you</t>
-  </si>
-  <si>
-    <t>Youngblood</t>
-  </si>
-  <si>
-    <t>5 Seconds Of Summer</t>
   </si>
   <si>
     <t>Remember the words you told me
@@ -2448,9 +2802,6 @@
 Youngblood
 Say you want me, say you want me out of your life
 Then I'm just a dead man walking tonight</t>
-  </si>
-  <si>
-    <t>Whatever It Takes</t>
   </si>
   <si>
     <t>Falling too fast to prepare for this
@@ -2524,12 +2875,6 @@
 I do what it takes</t>
   </si>
   <si>
-    <t>Ric Flair Drip</t>
-  </si>
-  <si>
-    <t>Offset &amp; Metro Boomin</t>
-  </si>
-  <si>
     <t>Bijan 4 The 1 Time
 Metro Boomin' want some more, nigga!Going to the jeweler, bust the AP, yeah
 Slide on the water like a jet-ski, yeah
@@ -2590,9 +2935,6 @@
 Hop up in the Lamb, and drop the roof, show the tits</t>
   </si>
   <si>
-    <t>I Fall Apart</t>
-  </si>
-  <si>
     <t>Oooh, I fall apart
 Oooh, yeah, mmhmmShe told me that I'm not enough, yeah
 And she left me with a broken heart, yeah
@@ -2644,12 +2986,6 @@
 Surprised when you caught me off guard
 All this damn jewelry I bought
 You was my shorty, I thought</t>
-  </si>
-  <si>
-    <t>Pray For Me</t>
-  </si>
-  <si>
-    <t>The Weeknd &amp; Kendrick Lamar</t>
   </si>
   <si>
     <t>I'm always ready for a war again
@@ -2713,12 +3049,6 @@
 I live by my own</t>
   </si>
   <si>
-    <t>Back To You</t>
-  </si>
-  <si>
-    <t>Selena Gomez</t>
-  </si>
-  <si>
     <t>Took you like a shot
 Thought that I could chase you with a cold evening
 Let a couple years water down how I'm feeling about youAnd every time we talk
@@ -2775,12 +3105,6 @@
 I'll go back to you
 I'll go back to you
 I know I'd go back to you</t>
-  </si>
-  <si>
-    <t>Sicko Mode</t>
-  </si>
-  <si>
-    <t>Travis Scott</t>
   </si>
   <si>
     <t>Astro
@@ -2880,12 +3204,6 @@
 Bout a check, just check the foot
 Passes to my daughter, I'ma show her what it took (yeah)
 Baby mama cover Forbes, got these other bitches shook, yeah</t>
-  </si>
-  <si>
-    <t>Walk It Talk It</t>
-  </si>
-  <si>
-    <t>Migos Featuring Drake</t>
   </si>
   <si>
     <t>Yeah, yeah
@@ -3037,12 +3355,6 @@
 Walk it, walk it like I talk it</t>
   </si>
   <si>
-    <t>Gucci Gang</t>
-  </si>
-  <si>
-    <t>Lil Pump</t>
-  </si>
-  <si>
     <t>Yuh, ooh, brr, brr
 Gucci gang, ooh
 (That's it right there, Gnealz)Yuh, Lil Pump, yuh
@@ -3097,12 +3409,6 @@
 I can't buy no bitch no wedding ring, ooh (Nope)
 Rather go and buy Balmains, ayy (Huh?)
 Gucci gang, Gucci gang, Gucci gang (Gucci gang)</t>
-  </si>
-  <si>
-    <t>Him &amp; I</t>
-  </si>
-  <si>
-    <t>G-Eazy &amp; Halsey</t>
   </si>
   <si>
     <t>Cross my heart, hope to die
@@ -3207,12 +3513,6 @@
 In the end, it's him and I</t>
   </si>
   <si>
-    <t>In My Blood</t>
-  </si>
-  <si>
-    <t>Shawn Mendes</t>
-  </si>
-  <si>
     <t>Help me, it's like the walls are caving in
 Sometimes I feel like giving up
 But I just can'tIt isn't in my blood
@@ -3259,12 +3559,6 @@
 It isn't in my blood
 I need somebody now
 It isn't in my blood</t>
-  </si>
-  <si>
-    <t>All The Stars</t>
-  </si>
-  <si>
-    <t>Kendrick Lamar &amp; SZA</t>
   </si>
   <si>
     <t>Love, let's talk about love
@@ -3334,12 +3628,6 @@
 All the stars are closer
 All the stars are closer
 All the stars are closer</t>
-  </si>
-  <si>
-    <t>Stir Fry</t>
-  </si>
-  <si>
-    <t>Migos</t>
   </si>
   <si>
     <t>Whoo, whoo, whoo, whoo
@@ -3416,12 +3704,6 @@
 In the kitchen, wrist twistin' like it's stir-fry (Wroof)</t>
   </si>
   <si>
-    <t>Too Good At Goodbyes</t>
-  </si>
-  <si>
-    <t>Sam Smith</t>
-  </si>
-  <si>
     <t>You must think that I'm stupid
 You must think that I'm a fool
 You must think that I'm new to thisBut I have seen this all before
@@ -3472,12 +3754,6 @@
 And every time you walk out, the less I love you
 Baby, we don't stand a chance, it's sad but it's true
 I'm way too good at goodbyes</t>
-  </si>
-  <si>
-    <t>Love.</t>
-  </si>
-  <si>
-    <t>Kendrick Lamar Featuring Zacari</t>
   </si>
   <si>
     <t>Damn
@@ -3550,12 +3826,6 @@
 I wanna be with you, ayy, I wanna be with
 I wanna be with you, ayy, I wanna be with
 I wanna be with you (Love me, just love me)</t>
-  </si>
-  <si>
-    <t>This Is America</t>
-  </si>
-  <si>
-    <t>Childish Gambino</t>
   </si>
   <si>
     <t>Yeah, yeah, yeah, yeah, yeah
@@ -3666,9 +3936,6 @@
 For a big dog</t>
   </si>
   <si>
-    <t>Nonstop</t>
-  </si>
-  <si>
     <t>Tay Keith, fuck these niggas up!
 Look, I just flipped a switchI don't know nobody else that's doin' this
 Bodies start to drop (Ayy, hit the floor)
@@ -3745,12 +4012,6 @@
 This the flow that got the block hot, shit got super hot</t>
   </si>
   <si>
-    <t>Heaven</t>
-  </si>
-  <si>
-    <t>Kane Brown</t>
-  </si>
-  <si>
     <t>Hmmm, this is perfect
 Come kiss me one more time
 I couldn't dream this upEven if I tried
@@ -3781,12 +4042,6 @@
 Could be better than this (heaven, heaven)
 I swear this is perfect
 Come kiss me one more time</t>
-  </si>
-  <si>
-    <t>Bodak Yellow (Money Moves)</t>
-  </si>
-  <si>
-    <t>Cardi B</t>
   </si>
   <si>
     <t>KSR
@@ -3872,12 +4127,6 @@
 Say I don't gotta dance, I make money move
 If I see you and I don't speak, that means I don't fuck with you
 I'm a boss, you a worker, bitch, I make bloody moves...</t>
-  </si>
-  <si>
-    <t>Freaky Friday</t>
-  </si>
-  <si>
-    <t>Lil Dicky Featuring Chris Brown</t>
   </si>
   <si>
     <t>Lil dicky, ooh
@@ -3966,12 +4215,6 @@
 I'm gonna understand the inner workings of a woman</t>
   </si>
   <si>
-    <t>Gummo</t>
-  </si>
-  <si>
-    <t>6ix9ine</t>
-  </si>
-  <si>
     <t>Niggas iffy, uh, blicky got the stiffy, uh
 Got the blicky, uh, drum, it holds fifty, uh
 Scum GangPop these niggas like a wheelie, nigga, you a silly nigga
@@ -4013,18 +4256,6 @@
 Scum Gang</t>
   </si>
   <si>
-    <t>Plug Walk</t>
-  </si>
-  <si>
-    <t>Rich The Kid</t>
-  </si>
-  <si>
-    <t>Wait</t>
-  </si>
-  <si>
-    <t>Maroon 5</t>
-  </si>
-  <si>
     <t>Dirty looks from your mother
 Never seen you in a dress that color, no
 It's a special occasionNot invited but I'm glad I made it
@@ -4062,9 +4293,6 @@
 Wait, can you turn around, can you turn around?
 Just wait, can we work this out, can we work this out?
 Just wait, can you call me please? 'Cause I wanna be with you</t>
-  </si>
-  <si>
-    <t>Be Careful</t>
   </si>
   <si>
     <t>Yeah
@@ -4136,18 +4364,6 @@
 Be careful with me
 Yeah, my heart is like a package with a fragile label on it
 Be careful with me</t>
-  </si>
-  <si>
-    <t>Wolves</t>
-  </si>
-  <si>
-    <t>Selena Gomez X Marshmello</t>
-  </si>
-  <si>
-    <t>Bartier Cardi</t>
-  </si>
-  <si>
-    <t>Cardi B Featuring 21 Savage</t>
   </si>
   <si>
     <t>Bardi in a 'Rari, diamonds all over my body
@@ -4272,9 +4488,6 @@
 Cartier, Cardi B brain on Offset (who's Cardi?)</t>
   </si>
   <si>
-    <t>God Is A Woman</t>
-  </si>
-  <si>
     <t>You, you love it how I move you
 You love it how I touch you, my one
 When all is said and doneYou'll believe God is a woman
@@ -4341,12 +4554,6 @@
 (One)
 It lingers when we're done
 You'll believe God is a woman</t>
-  </si>
-  <si>
-    <t>Big Bank</t>
-  </si>
-  <si>
-    <t>YG Featuring 2 Chainz, Big Sean &amp; Nicki Minaj</t>
   </si>
   <si>
     <t>My bitch drive a all white Range
@@ -4446,12 +4653,6 @@
 Big bank take lil' bank, bank</t>
   </si>
   <si>
-    <t>Sorry Not Sorry</t>
-  </si>
-  <si>
-    <t>Demi Lovato</t>
-  </si>
-  <si>
     <t>Payback is a bad bitch
 And baby, I'm the baddest, I'm the baddest, I'm the baddest
 GoNow I'm out here looking like revenge
@@ -4516,12 +4717,6 @@
 And baby, I'm the baddest, I'm the baddest, I'm the baddest</t>
   </si>
   <si>
-    <t>How Long</t>
-  </si>
-  <si>
-    <t>Charlie Puth</t>
-  </si>
-  <si>
     <t>Ooh, yeah
 I'll admit, I was wrong, what else can I say, girl?Can't you blame my head and not my heart
 I was drunk, I was gone, that don't make it right, but
@@ -4581,12 +4776,6 @@
 Baby</t>
   </si>
   <si>
-    <t>Lights Down Low</t>
-  </si>
-  <si>
-    <t>MAX Featuring gnash</t>
-  </si>
-  <si>
     <t>Heaven only knows where you've been
 But I don't really need to know
 I know where you're gonna goOn my heart where you're resting your head
@@ -4637,12 +4826,6 @@
 Oh-oh-oh-oh-oh-oh
 (I turn the lights down low)
 Oh-oh-oh-oh-oh-oh</t>
-  </si>
-  <si>
-    <t>Young Dumb &amp; Broke</t>
-  </si>
-  <si>
-    <t>Khalid</t>
   </si>
   <si>
     <t>So you're still thinking of me
@@ -4705,12 +4888,6 @@
 Young, dumb, broke high school kids</t>
   </si>
   <si>
-    <t>One Kiss</t>
-  </si>
-  <si>
-    <t>Calvin Harris &amp; Dua Lipa</t>
-  </si>
-  <si>
     <t>One kiss is all it takes
 Fallin' in love with me
 PossibilitiesI look like all you need
@@ -4763,9 +4940,6 @@
 Fallin' in love with me
 Possibilities
 I look like all you need</t>
-  </si>
-  <si>
-    <t>Natural</t>
   </si>
   <si>
     <t>Will you hold the line?
@@ -4825,12 +4999,6 @@
 Yeah, you're a natural</t>
   </si>
   <si>
-    <t>You Make It Easy</t>
-  </si>
-  <si>
-    <t>Jason Aldean</t>
-  </si>
-  <si>
     <t>Like a rainy Sunday mornin' makes me
 Wanna stay in bed twisted up all day long
 You're my inspiration girlYou take me places, put the words right into these songs
@@ -4863,9 +5031,6 @@
 You make me who I wanna be
 You make it easy
 You make it easy</t>
-  </si>
-  <si>
-    <t>Shape Of You</t>
   </si>
   <si>
     <t>The club isn't the best place to find a lover
@@ -4959,12 +5124,6 @@
 (Come on, be my baby, come on) I'm in love with your body
 Every day discovering something brand new
 I'm in love with the shape of you</t>
-  </si>
-  <si>
-    <t>I Get The Bag</t>
-  </si>
-  <si>
-    <t>Gucci Mane Featuring Migos</t>
   </si>
   <si>
     <t>Shine
@@ -5077,24 +5236,6 @@
 They say the dope on fleek (yep)</t>
   </si>
   <si>
-    <t>No Brainer</t>
-  </si>
-  <si>
-    <t>DJ Khaled Featuring Justin Bieber, Chance The Rapper &amp; Quavo</t>
-  </si>
-  <si>
-    <t>Plain Jane</t>
-  </si>
-  <si>
-    <t>A$AP Ferg Featuring Nicki Minaj</t>
-  </si>
-  <si>
-    <t>Sky Walker</t>
-  </si>
-  <si>
-    <t>Miguel Featuring Travis Scott</t>
-  </si>
-  <si>
     <t>Quick to dead the bull like a matador
 Quick to dead the bull like a matador
 Bull, bull, bull like a matadorQuick to dead the bull like a matador
@@ -5174,12 +5315,6 @@
 Work it out 'til it's turnt out, yeah</t>
   </si>
   <si>
-    <t>Marry Me</t>
-  </si>
-  <si>
-    <t>Thomas Rhett</t>
-  </si>
-  <si>
     <t>She wants to get married, she wants it perfect
 She wants her granddaddy preachin' the service
 Yeah, she wants magnolias out in the countryNot too many people, save her daddy some money
@@ -5211,18 +5346,6 @@
 Yeah, she gonna get married
 But she ain't gonna marry me
 Whoa, but she ain't gonna marry me, no</t>
-  </si>
-  <si>
-    <t>Eastside</t>
-  </si>
-  <si>
-    <t>benny blanco, Halsey &amp; Khalid</t>
-  </si>
-  <si>
-    <t>Call Out My Name</t>
-  </si>
-  <si>
-    <t>The Weeknd</t>
   </si>
   <si>
     <t>We found each other
@@ -5264,12 +5387,6 @@
 On my way, on my way, on my way
 On my way, on my way, on my way
 (On my)</t>
-  </si>
-  <si>
-    <t>King's Dead</t>
-  </si>
-  <si>
-    <t>Jay Rock, Kendrick Lamar, Future &amp; James Blake</t>
   </si>
   <si>
     <t>Miss me with that bullshit (bullshit)
@@ -5366,12 +5483,6 @@
 Fast cars</t>
   </si>
   <si>
-    <t>Happier</t>
-  </si>
-  <si>
-    <t>Marshmello &amp; Bastille</t>
-  </si>
-  <si>
     <t>Lately, I've been, I've been thinking
 I want you to be happier
 I want you to be happierWhen the morning comes
@@ -5432,12 +5543,6 @@
 I want you to be happier
 So I'll go, I'll go
 I will go, go, go</t>
-  </si>
-  <si>
-    <t>Te Bote</t>
-  </si>
-  <si>
-    <t>Casper Magico, Nio Garcia, Darell, Nicky Jam, Ozuna &amp; Bad Bunny</t>
   </si>
   <si>
     <t>Wo-oh, oh, oh (Oh, oh)
@@ -5521,12 +5626,6 @@
 Bebé, yo te boté</t>
   </si>
   <si>
-    <t>Simple</t>
-  </si>
-  <si>
-    <t>Florida Georgia Line</t>
-  </si>
-  <si>
     <t>The way your fingers fit in mine
 It's five plus five, not rocket science
 This day in time, that's hard to findIt's true
@@ -5585,18 +5684,6 @@
 Simple as can be
 It's just that simple, S-I-M-P-L-E
 Simple as can be</t>
-  </si>
-  <si>
-    <t>Lemon</t>
-  </si>
-  <si>
-    <t>N*E*R*D &amp; Rihanna</t>
-  </si>
-  <si>
-    <t>1-800-273-8255</t>
-  </si>
-  <si>
-    <t>Logic Featuring Alessia Cara &amp; Khalid</t>
   </si>
   <si>
     <t>I've been on the low
@@ -5690,12 +5777,6 @@
 I don't even wanna die anymore</t>
   </si>
   <si>
-    <t>Say Something</t>
-  </si>
-  <si>
-    <t>Justin Timberlake Featuring Chris Stapleton</t>
-  </si>
-  <si>
     <t>Mhmm, yeah, alright
 OohEveryone knows all about my direction
 And in my heart somewhere I wanna go there
@@ -5767,9 +5848,6 @@
 Is to say nothing</t>
   </si>
   <si>
-    <t>I'm Upset</t>
-  </si>
-  <si>
     <t>Yeah
 (I'm workin' on dyin')I'm upset
 Fifty thousand on my head, it's disrespect
@@ -5823,12 +5901,6 @@
 Can't go fifty-fifty with no hoe</t>
   </si>
   <si>
-    <t>Get Along</t>
-  </si>
-  <si>
-    <t>Kenny Chesney</t>
-  </si>
-  <si>
     <t>Met a man wearin' a t-shirt, said "Virginia is for lovers"
 Had a Bible in his left hand and a bottle in the other
 He said "All you're really given is the sunshine and your name"We both started laughin' when the sky started to rain
@@ -5870,9 +5942,6 @@
 Call your mom, buy a boat
 Drink a beer, sing a song
 Make a friend, can't we all get along</t>
-  </si>
-  <si>
-    <t>Moonlight</t>
   </si>
   <si>
     <t>Yeah
@@ -5919,12 +5988,6 @@
 Nigga, why you trippin'? Get your mood right
 Shawty look good in the moonlight
 All these pussy niggas so bad mind</t>
-  </si>
-  <si>
-    <t>What Lovers Do</t>
-  </si>
-  <si>
-    <t>Maroon 5 Featuring SZA</t>
   </si>
   <si>
     <t>Say, say, say, hey, hey, now, baby
@@ -5999,12 +6062,6 @@
 Tryna' do what lovers do (ooh)</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Nicky Jam x J Balvin</t>
-  </si>
-  <si>
     <t>Aquel día te vi y tu energía sentí
 Desde eso no te quiero lejos de mí (Lejos de mí)
 Sé que no sabes de mí y no te puedo mentirLo que dicen en la calle sobre mí (Sobre mí)
@@ -6051,12 +6108,6 @@
 ¡Wuh!</t>
   </si>
   <si>
-    <t>Outside Today</t>
-  </si>
-  <si>
-    <t>YoungBoy Never Broke Again</t>
-  </si>
-  <si>
     <t>Tryna hide from the cameras, I ain't going outside today
 Couldn't find Hi-Tec, so I'm drinking on Act today
 I'ma pull up in style, we gon do a drive by in the wraithI'ma take it to trial, pray to Lord I beat the case
@@ -6085,9 +6136,6 @@
 Couldn't find Hi-Tec, so I'm drinking on Act today
 I'ma pull up in style, we gon do a drive by in the wraith
 I'ma take it to trial, pray to Lord I beat the case</t>
-  </si>
-  <si>
-    <t>Trip</t>
   </si>
   <si>
     <t>Oooh, yeah, yeah
@@ -6145,12 +6193,6 @@
 My bad, my bad for, trippin' on you (Trippin' on you)
 Trippin' on you, yeah yeah
 Ooh, yeah, yeah</t>
-  </si>
-  <si>
-    <t>Dura</t>
-  </si>
-  <si>
-    <t>Daddy Yankee</t>
   </si>
   <si>
     <t>Me gusta mi reggae
@@ -6230,9 +6272,6 @@
 Blaze (Jday, Jday, Jday)</t>
   </si>
   <si>
-    <t>Changes</t>
-  </si>
-  <si>
     <t>Mmm, baby I don't understand this
 You're changing, I can't stand it
 My heart can't take this damageAnd the way I feel, can't stand it
@@ -6260,12 +6299,6 @@
 My heart can't take this damage
 And the way I feel, can't stand it
 Mmm, baby I don't understand it</t>
-  </si>
-  <si>
-    <t>Mercy</t>
-  </si>
-  <si>
-    <t>Brett Young</t>
   </si>
   <si>
     <t>Mercy
@@ -6307,12 +6340,6 @@
 Oh have mercy
 Oh have mercy
 Have mercy</t>
-  </si>
-  <si>
-    <t>One Number Away</t>
-  </si>
-  <si>
-    <t>Luke Combs</t>
   </si>
   <si>
     <t>Are you sitting at home all alone
@@ -6368,15 +6395,6 @@
 Away
 Away
 Yeah I'm still one number away</t>
-  </si>
-  <si>
-    <t>Powerglide</t>
-  </si>
-  <si>
-    <t>Rae Sremmurd &amp; Juicy J</t>
-  </si>
-  <si>
-    <t>IDGAF</t>
   </si>
   <si>
     <t>You call me all friendly
@@ -6450,12 +6468,6 @@
 'Cause, boy, I don't give a fuck</t>
   </si>
   <si>
-    <t>Mi Gente</t>
-  </si>
-  <si>
-    <t>J Balvin &amp; Willy William Featuring Beyonce</t>
-  </si>
-  <si>
     <t>Si el ritmo te lleva a mover la cabeza ya empezamos cómo es
 Mi música no discrimina a nadie así que vamos a romperCon lo mío todos se mueven
 La fiesta la llevo en mis genes
@@ -6520,9 +6532,6 @@
 Uh huh... uh huh... uh huh</t>
   </si>
   <si>
-    <t>Believer</t>
-  </si>
-  <si>
     <t>First things first
 I'ma say all the words inside my head
 I'm fired up, and tired of the way that things have been, oh-oohThe way that things have been, oh-ooh
@@ -6585,16 +6594,61 @@
 Pain!
 You made me a, you made me a believer, believer</t>
   </si>
+  <si>
+    <t>Ayy, ayy
+Plug walk (plug walk, plug, plug)
+I don't even understand how the f*ck my plug talk (huh? what, what?)
+Pick him up in a space coupe,
+I don't let my plug walk (skrrt, pull up in a space coupe)
+New freak, had to cut my other lil' b*tch off (ooh, ooh, lil' b*tch)
+50K, you could come and book a nigga for a plug walk
+You can't reach me (what?), space coupe like E.T
+It's the plug tryna call me (skrrt, skrrt)
+I was up trappin' early in the morning (plug)
+Ooh, on the wave like a du-rag (du-rag)
+P*ssy nigga callin' for his boo back (p*ssy)
+Plug walk, Gucci on my shoe racks (Gucci)
+Walk up in the house, hit a rat-a-tat
+'Til I ran into the plug ('til I ran into the plug)
+'Til I ran into the mud (to the mud)
+I done ran into some racks, I done ran into your girl (your girl)
+Why the plug show me love? (Show me love)
+I done came up from a dub (huh?)
+Plug walk (plug walk, plug, plug)
+I don't even understand how the f*ck my plug talk (huh? what, what?)
+Pick him up in a space coupe,
+I don't let my plug walk (skrrt, pull up in a space coupe)
+New freak, had to cut my other lil' b*tch off (ooh, ooh, lil' b*tch)
+50K, you could come and book a nigga for a plug walk
+Dark Walk
+Tanti contatti quindi ho due iPhone (brr brr, brr brr)
+Valigie in mano sono appena tornato da New York (New York, ey)
+Scappo dalla polizia facendo il Moonwalk (skrt skrt)
+Sono un dark boy, fotto la tua b*tch non stop
+Guardami mentre spendo ventimila in pubblico
+Se mi ferma la Finanza faccio il finto stupido
+Ey, Plug walk (plug walk, plug, plug)
+I don't even understand how the f*ck my plug talk (huh? what, what?)
+Pick him up in a space coupe,
+I don't let my plug walk (skrrt, pull up in a space coupe)
+New freak, had to cut my other lil' b*tch off (ooh, ooh, lil' b*tch)
+50K, you could come and book a nigga for a plug walk
+Plug Walk, Dark Walk
+Vengo dallo spazio
+Questa Ferrari sembra uno shuttle
+Squilla il telefono "Pronto Pablo"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -6602,8 +6656,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -6615,7 +6676,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -6623,24 +6684,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6682,7 +6769,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6714,9 +6801,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6748,6 +6853,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6923,1090 +7046,1692 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E4">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E5">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="C6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E7">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E8">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E9">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" t="s">
+        <v>197</v>
+      </c>
+      <c r="E11">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="C12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E12">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" t="s">
+        <v>199</v>
+      </c>
+      <c r="E13">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="C15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" t="s">
+        <v>200</v>
+      </c>
+      <c r="E15">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" t="s">
+        <v>201</v>
+      </c>
+      <c r="E16">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" t="s">
+        <v>202</v>
+      </c>
+      <c r="E17">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="C18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" t="s">
+        <v>203</v>
+      </c>
+      <c r="E18">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" t="s">
+        <v>204</v>
+      </c>
+      <c r="E19">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" t="s">
+        <v>205</v>
+      </c>
+      <c r="E20">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+      <c r="C21" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" t="s">
+        <v>206</v>
+      </c>
+      <c r="E21">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" t="s">
+        <v>207</v>
+      </c>
+      <c r="E22">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C23" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" t="s">
+        <v>208</v>
+      </c>
+      <c r="E23">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="C24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" t="s">
+        <v>209</v>
+      </c>
+      <c r="E24">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C25" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" t="s">
+        <v>210</v>
+      </c>
+      <c r="E25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
         <v>28</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D26" t="s">
+        <v>211</v>
+      </c>
+      <c r="E26">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="C27" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" t="s">
+        <v>212</v>
+      </c>
+      <c r="E27">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
         <v>30</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="C28" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" t="s">
+        <v>213</v>
+      </c>
+      <c r="E28">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+      <c r="C29" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29" t="s">
+        <v>214</v>
+      </c>
+      <c r="E29">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
         <v>32</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C30" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" t="s">
+        <v>215</v>
+      </c>
+      <c r="E30">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
         <v>33</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C31" t="s">
+        <v>131</v>
+      </c>
+      <c r="D31" t="s">
+        <v>216</v>
+      </c>
+      <c r="E31">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+      <c r="C32" t="s">
+        <v>132</v>
+      </c>
+      <c r="D32" t="s">
+        <v>217</v>
+      </c>
+      <c r="E32">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
         <v>35</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C33" t="s">
+        <v>133</v>
+      </c>
+      <c r="D33" t="s">
+        <v>218</v>
+      </c>
+      <c r="E33">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
         <v>36</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C34" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" t="s">
+        <v>219</v>
+      </c>
+      <c r="E34">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
+      <c r="C35" t="s">
+        <v>135</v>
+      </c>
+      <c r="D35" t="s">
+        <v>220</v>
+      </c>
+      <c r="E35">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
         <v>38</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C36" t="s">
+        <v>136</v>
+      </c>
+      <c r="D36" t="s">
+        <v>221</v>
+      </c>
+      <c r="E36">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+      <c r="C37" t="s">
+        <v>122</v>
+      </c>
+      <c r="D37" t="s">
+        <v>222</v>
+      </c>
+      <c r="E37">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
         <v>40</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C38" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" t="s">
+        <v>223</v>
+      </c>
+      <c r="E38">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
         <v>41</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C39" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" t="s">
+        <v>224</v>
+      </c>
+      <c r="E39">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
+      <c r="C40" t="s">
+        <v>138</v>
+      </c>
+      <c r="D40" t="s">
+        <v>225</v>
+      </c>
+      <c r="E40">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
         <v>43</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C41" t="s">
+        <v>139</v>
+      </c>
+      <c r="D41" t="s">
+        <v>226</v>
+      </c>
+      <c r="E41">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
         <v>44</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C42" t="s">
+        <v>140</v>
+      </c>
+      <c r="D42" t="s">
+        <v>227</v>
+      </c>
+      <c r="E42">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
+      <c r="C43" t="s">
+        <v>141</v>
+      </c>
+      <c r="D43" t="s">
+        <v>228</v>
+      </c>
+      <c r="E43">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
         <v>46</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C44" t="s">
+        <v>142</v>
+      </c>
+      <c r="D44" t="s">
+        <v>229</v>
+      </c>
+      <c r="E44">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
         <v>47</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C45" t="s">
+        <v>143</v>
+      </c>
+      <c r="D45" t="s">
+        <v>230</v>
+      </c>
+      <c r="E45">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
+      <c r="C46" t="s">
+        <v>144</v>
+      </c>
+      <c r="D46" t="s">
+        <v>231</v>
+      </c>
+      <c r="E46">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
         <v>49</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C47" t="s">
+        <v>145</v>
+      </c>
+      <c r="D47" t="s">
+        <v>232</v>
+      </c>
+      <c r="E47">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
         <v>50</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C48" t="s">
+        <v>146</v>
+      </c>
+      <c r="D48" t="s">
+        <v>233</v>
+      </c>
+      <c r="E48">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
+      <c r="C49" t="s">
+        <v>147</v>
+      </c>
+      <c r="D49" t="s">
+        <v>234</v>
+      </c>
+      <c r="E49">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
         <v>52</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C50" t="s">
+        <v>148</v>
+      </c>
+      <c r="D50" t="s">
+        <v>235</v>
+      </c>
+      <c r="E50">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
         <v>53</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C51" t="s">
+        <v>149</v>
+      </c>
+      <c r="D51" t="s">
+        <v>236</v>
+      </c>
+      <c r="E51">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
+      <c r="C52" t="s">
+        <v>110</v>
+      </c>
+      <c r="D52" t="s">
+        <v>237</v>
+      </c>
+      <c r="E52">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
         <v>55</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C53" t="s">
+        <v>150</v>
+      </c>
+      <c r="D53" t="s">
+        <v>238</v>
+      </c>
+      <c r="E53">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
         <v>56</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C54" t="s">
+        <v>151</v>
+      </c>
+      <c r="D54" t="s">
+        <v>239</v>
+      </c>
+      <c r="E54">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="C55" t="s">
+        <v>152</v>
+      </c>
+      <c r="D55" t="s">
+        <v>240</v>
+      </c>
+      <c r="E55">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
         <v>58</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C56" t="s">
+        <v>153</v>
+      </c>
+      <c r="D56" t="s">
+        <v>241</v>
+      </c>
+      <c r="E56">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
         <v>59</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C57" t="s">
+        <v>154</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E57">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="C58" t="s">
+        <v>155</v>
+      </c>
+      <c r="D58" t="s">
+        <v>242</v>
+      </c>
+      <c r="E58">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
         <v>61</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C59" t="s">
+        <v>151</v>
+      </c>
+      <c r="D59" t="s">
+        <v>243</v>
+      </c>
+      <c r="E59">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
         <v>62</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C60" t="s">
+        <v>156</v>
+      </c>
+      <c r="E60">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
+      <c r="C61" t="s">
+        <v>157</v>
+      </c>
+      <c r="D61" t="s">
+        <v>244</v>
+      </c>
+      <c r="E61">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
         <v>64</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C62" t="s">
+        <v>120</v>
+      </c>
+      <c r="D62" t="s">
+        <v>245</v>
+      </c>
+      <c r="E62">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
         <v>65</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C63" t="s">
+        <v>158</v>
+      </c>
+      <c r="D63" t="s">
+        <v>246</v>
+      </c>
+      <c r="E63">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="C64" t="s">
+        <v>159</v>
+      </c>
+      <c r="D64" t="s">
+        <v>247</v>
+      </c>
+      <c r="E64">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
         <v>67</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C65" t="s">
+        <v>160</v>
+      </c>
+      <c r="D65" t="s">
+        <v>248</v>
+      </c>
+      <c r="E65">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
         <v>68</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C66" t="s">
+        <v>161</v>
+      </c>
+      <c r="D66" t="s">
+        <v>249</v>
+      </c>
+      <c r="E66">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+      <c r="C67" t="s">
+        <v>162</v>
+      </c>
+      <c r="D67" t="s">
+        <v>250</v>
+      </c>
+      <c r="E67">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
         <v>70</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C68" t="s">
+        <v>163</v>
+      </c>
+      <c r="D68" t="s">
+        <v>251</v>
+      </c>
+      <c r="E68">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
         <v>71</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C69" t="s">
+        <v>122</v>
+      </c>
+      <c r="D69" t="s">
+        <v>252</v>
+      </c>
+      <c r="E69">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
+      <c r="C70" t="s">
+        <v>164</v>
+      </c>
+      <c r="D70" t="s">
+        <v>253</v>
+      </c>
+      <c r="E70">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
         <v>73</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C71" t="s">
+        <v>103</v>
+      </c>
+      <c r="D71" t="s">
+        <v>254</v>
+      </c>
+      <c r="E71">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
         <v>74</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C72" t="s">
+        <v>165</v>
+      </c>
+      <c r="D72" t="s">
+        <v>255</v>
+      </c>
+      <c r="E72">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
+      <c r="C73" t="s">
+        <v>166</v>
+      </c>
+      <c r="E73">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
         <v>76</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C74" t="s">
+        <v>167</v>
+      </c>
+      <c r="E74">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
         <v>77</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C75" t="s">
+        <v>168</v>
+      </c>
+      <c r="D75" t="s">
+        <v>256</v>
+      </c>
+      <c r="E75">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
+      <c r="C76" t="s">
+        <v>169</v>
+      </c>
+      <c r="D76" t="s">
+        <v>257</v>
+      </c>
+      <c r="E76">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
         <v>79</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C77" t="s">
+        <v>170</v>
+      </c>
+      <c r="E77">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
         <v>80</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C78" t="s">
+        <v>171</v>
+      </c>
+      <c r="D78" t="s">
+        <v>258</v>
+      </c>
+      <c r="E78">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
+      <c r="C79" t="s">
+        <v>172</v>
+      </c>
+      <c r="D79" t="s">
+        <v>259</v>
+      </c>
+      <c r="E79">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
         <v>82</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C80" t="s">
+        <v>173</v>
+      </c>
+      <c r="D80" t="s">
+        <v>260</v>
+      </c>
+      <c r="E80">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
         <v>83</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C81" t="s">
+        <v>174</v>
+      </c>
+      <c r="D81" t="s">
+        <v>261</v>
+      </c>
+      <c r="E81">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
+      <c r="C82" t="s">
+        <v>175</v>
+      </c>
+      <c r="D82" t="s">
+        <v>262</v>
+      </c>
+      <c r="E82">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
         <v>85</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C83" t="s">
+        <v>176</v>
+      </c>
+      <c r="E83">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
         <v>86</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C84" t="s">
+        <v>177</v>
+      </c>
+      <c r="D84" t="s">
+        <v>263</v>
+      </c>
+      <c r="E84">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
+      <c r="C85" t="s">
+        <v>178</v>
+      </c>
+      <c r="D85" t="s">
+        <v>264</v>
+      </c>
+      <c r="E85">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
         <v>88</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C86" t="s">
+        <v>110</v>
+      </c>
+      <c r="D86" t="s">
+        <v>265</v>
+      </c>
+      <c r="E86">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
         <v>89</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C87" t="s">
+        <v>179</v>
+      </c>
+      <c r="D87" t="s">
+        <v>266</v>
+      </c>
+      <c r="E87">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
+      <c r="C88" t="s">
+        <v>117</v>
+      </c>
+      <c r="D88" t="s">
+        <v>267</v>
+      </c>
+      <c r="E88">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
         <v>91</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C89" t="s">
+        <v>180</v>
+      </c>
+      <c r="D89" t="s">
+        <v>268</v>
+      </c>
+      <c r="E89">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
         <v>92</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C90" t="s">
+        <v>181</v>
+      </c>
+      <c r="D90" t="s">
+        <v>269</v>
+      </c>
+      <c r="E90">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
+      <c r="C91" t="s">
+        <v>182</v>
+      </c>
+      <c r="D91" t="s">
+        <v>270</v>
+      </c>
+      <c r="E91">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
         <v>94</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C92" t="s">
+        <v>115</v>
+      </c>
+      <c r="D92" t="s">
+        <v>271</v>
+      </c>
+      <c r="E92">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
         <v>95</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C93" t="s">
+        <v>183</v>
+      </c>
+      <c r="D93" t="s">
+        <v>272</v>
+      </c>
+      <c r="E93">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
+      <c r="C94" t="s">
+        <v>117</v>
+      </c>
+      <c r="D94" t="s">
+        <v>273</v>
+      </c>
+      <c r="E94">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
         <v>97</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C95" t="s">
+        <v>184</v>
+      </c>
+      <c r="D95" t="s">
+        <v>274</v>
+      </c>
+      <c r="E95">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
         <v>98</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C96" t="s">
+        <v>185</v>
+      </c>
+      <c r="D96" t="s">
+        <v>275</v>
+      </c>
+      <c r="E96">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
+      <c r="C97" t="s">
+        <v>186</v>
+      </c>
+      <c r="E97">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
         <v>100</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C98" t="s">
+        <v>116</v>
+      </c>
+      <c r="D98" t="s">
+        <v>276</v>
+      </c>
+      <c r="E98">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
         <v>101</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C99" t="s">
+        <v>187</v>
+      </c>
+      <c r="D99" t="s">
+        <v>277</v>
+      </c>
+      <c r="E99">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>103</v>
-      </c>
-      <c r="B36" t="s">
-        <v>104</v>
-      </c>
-      <c r="C36" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>106</v>
-      </c>
-      <c r="B37" t="s">
-        <v>62</v>
-      </c>
-      <c r="C37" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>108</v>
-      </c>
-      <c r="B38" t="s">
-        <v>109</v>
-      </c>
-      <c r="C38" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>111</v>
-      </c>
-      <c r="B39" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>113</v>
-      </c>
-      <c r="B40" t="s">
-        <v>114</v>
-      </c>
-      <c r="C40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>116</v>
-      </c>
-      <c r="B41" t="s">
-        <v>117</v>
-      </c>
-      <c r="C41" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>119</v>
-      </c>
-      <c r="B42" t="s">
-        <v>120</v>
-      </c>
-      <c r="C42" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
+      <c r="C100" t="s">
         <v>122</v>
       </c>
-      <c r="B43" t="s">
-        <v>123</v>
-      </c>
-      <c r="C43" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>125</v>
-      </c>
-      <c r="B44" t="s">
-        <v>126</v>
-      </c>
-      <c r="C44" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>128</v>
-      </c>
-      <c r="B45" t="s">
-        <v>129</v>
-      </c>
-      <c r="C45" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>131</v>
-      </c>
-      <c r="B46" t="s">
-        <v>132</v>
-      </c>
-      <c r="C46" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>134</v>
-      </c>
-      <c r="B47" t="s">
-        <v>135</v>
-      </c>
-      <c r="C47" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>137</v>
-      </c>
-      <c r="B48" t="s">
-        <v>138</v>
-      </c>
-      <c r="C48" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>140</v>
-      </c>
-      <c r="B49" t="s">
-        <v>141</v>
-      </c>
-      <c r="C49" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>143</v>
-      </c>
-      <c r="B50" t="s">
-        <v>144</v>
-      </c>
-      <c r="C50" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>146</v>
-      </c>
-      <c r="B51" t="s">
-        <v>147</v>
-      </c>
-      <c r="C51" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>149</v>
-      </c>
-      <c r="B52" t="s">
-        <v>25</v>
-      </c>
-      <c r="C52" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>151</v>
-      </c>
-      <c r="B53" t="s">
-        <v>152</v>
-      </c>
-      <c r="C53" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>154</v>
-      </c>
-      <c r="B54" t="s">
-        <v>155</v>
-      </c>
-      <c r="C54" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>157</v>
-      </c>
-      <c r="B55" t="s">
-        <v>158</v>
-      </c>
-      <c r="C55" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>160</v>
-      </c>
-      <c r="B56" t="s">
-        <v>161</v>
-      </c>
-      <c r="C56" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>163</v>
-      </c>
-      <c r="B57" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>165</v>
-      </c>
-      <c r="B58" t="s">
-        <v>166</v>
-      </c>
-      <c r="C58" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>168</v>
-      </c>
-      <c r="B59" t="s">
-        <v>155</v>
-      </c>
-      <c r="C59" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>170</v>
-      </c>
-      <c r="B60" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>172</v>
-      </c>
-      <c r="B61" t="s">
-        <v>173</v>
-      </c>
-      <c r="C61" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>175</v>
-      </c>
-      <c r="B62" t="s">
-        <v>56</v>
-      </c>
-      <c r="C62" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>177</v>
-      </c>
-      <c r="B63" t="s">
-        <v>178</v>
-      </c>
-      <c r="C63" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>180</v>
-      </c>
-      <c r="B64" t="s">
-        <v>181</v>
-      </c>
-      <c r="C64" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>183</v>
-      </c>
-      <c r="B65" t="s">
-        <v>184</v>
-      </c>
-      <c r="C65" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>186</v>
-      </c>
-      <c r="B66" t="s">
-        <v>187</v>
-      </c>
-      <c r="C66" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>189</v>
-      </c>
-      <c r="B67" t="s">
-        <v>190</v>
-      </c>
-      <c r="C67" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>192</v>
-      </c>
-      <c r="B68" t="s">
-        <v>193</v>
-      </c>
-      <c r="C68" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>195</v>
-      </c>
-      <c r="B69" t="s">
-        <v>62</v>
-      </c>
-      <c r="C69" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>197</v>
-      </c>
-      <c r="B70" t="s">
-        <v>198</v>
-      </c>
-      <c r="C70" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>200</v>
-      </c>
-      <c r="B71" t="s">
-        <v>4</v>
-      </c>
-      <c r="C71" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>202</v>
-      </c>
-      <c r="B72" t="s">
-        <v>203</v>
-      </c>
-      <c r="C72" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
+      <c r="D100" t="s">
+        <v>278</v>
+      </c>
+      <c r="E100">
         <v>205</v>
       </c>
-      <c r="B73" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>207</v>
-      </c>
-      <c r="B74" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>209</v>
-      </c>
-      <c r="B75" t="s">
-        <v>210</v>
-      </c>
-      <c r="C75" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
-        <v>212</v>
-      </c>
-      <c r="B76" t="s">
-        <v>213</v>
-      </c>
-      <c r="C76" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
-        <v>215</v>
-      </c>
-      <c r="B77" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
-        <v>217</v>
-      </c>
-      <c r="B78" t="s">
-        <v>218</v>
-      </c>
-      <c r="C78" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
-        <v>220</v>
-      </c>
-      <c r="B79" t="s">
-        <v>221</v>
-      </c>
-      <c r="C79" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
-        <v>223</v>
-      </c>
-      <c r="B80" t="s">
-        <v>224</v>
-      </c>
-      <c r="C80" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
-        <v>226</v>
-      </c>
-      <c r="B81" t="s">
-        <v>227</v>
-      </c>
-      <c r="C81" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
-        <v>229</v>
-      </c>
-      <c r="B82" t="s">
-        <v>230</v>
-      </c>
-      <c r="C82" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
-        <v>232</v>
-      </c>
-      <c r="B83" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
-        <v>234</v>
-      </c>
-      <c r="B84" t="s">
-        <v>235</v>
-      </c>
-      <c r="C84" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
-        <v>237</v>
-      </c>
-      <c r="B85" t="s">
-        <v>238</v>
-      </c>
-      <c r="C85" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
-        <v>240</v>
-      </c>
-      <c r="B86" t="s">
-        <v>25</v>
-      </c>
-      <c r="C86" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
-        <v>242</v>
-      </c>
-      <c r="B87" t="s">
-        <v>243</v>
-      </c>
-      <c r="C87" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
-        <v>245</v>
-      </c>
-      <c r="B88" t="s">
-        <v>47</v>
-      </c>
-      <c r="C88" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
-        <v>247</v>
-      </c>
-      <c r="B89" t="s">
-        <v>248</v>
-      </c>
-      <c r="C89" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="s">
-        <v>250</v>
-      </c>
-      <c r="B90" t="s">
-        <v>251</v>
-      </c>
-      <c r="C90" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
-        <v>253</v>
-      </c>
-      <c r="B91" t="s">
-        <v>254</v>
-      </c>
-      <c r="C91" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
-        <v>256</v>
-      </c>
-      <c r="B92" t="s">
-        <v>41</v>
-      </c>
-      <c r="C92" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
-        <v>258</v>
-      </c>
-      <c r="B93" t="s">
-        <v>259</v>
-      </c>
-      <c r="C93" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" t="s">
-        <v>261</v>
-      </c>
-      <c r="B94" t="s">
-        <v>47</v>
-      </c>
-      <c r="C94" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="s">
-        <v>263</v>
-      </c>
-      <c r="B95" t="s">
-        <v>264</v>
-      </c>
-      <c r="C95" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="s">
-        <v>266</v>
-      </c>
-      <c r="B96" t="s">
-        <v>267</v>
-      </c>
-      <c r="C96" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="s">
-        <v>269</v>
-      </c>
-      <c r="B97" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="s">
-        <v>271</v>
-      </c>
-      <c r="B98" t="s">
-        <v>44</v>
-      </c>
-      <c r="C98" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="s">
-        <v>273</v>
-      </c>
-      <c r="B99" t="s">
-        <v>274</v>
-      </c>
-      <c r="C99" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="s">
-        <v>276</v>
-      </c>
-      <c r="B100" t="s">
-        <v>62</v>
-      </c>
-      <c r="C100" t="s">
-        <v>277</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>